--- a/results/mp/tinybert/home-spam/confidence/210/stop-words-topk-0.35/avg_0.002_scores.xlsx
+++ b/results/mp/tinybert/home-spam/confidence/210/stop-words-topk-0.35/avg_0.002_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="103">
   <si>
     <t>anchor score</t>
   </si>
@@ -52,15 +52,15 @@
     <t>stopped</t>
   </si>
   <si>
+    <t>returned</t>
+  </si>
+  <si>
     <t>disappointed</t>
   </si>
   <si>
     <t>however</t>
   </si>
   <si>
-    <t>returned</t>
-  </si>
-  <si>
     <t>broke</t>
   </si>
   <si>
@@ -70,271 +70,256 @@
     <t>loves</t>
   </si>
   <si>
+    <t>wonderful</t>
+  </si>
+  <si>
     <t>excellent</t>
   </si>
   <si>
-    <t>wonderful</t>
-  </si>
-  <si>
     <t>love</t>
   </si>
   <si>
     <t>awesome</t>
   </si>
   <si>
+    <t>pleased</t>
+  </si>
+  <si>
+    <t>best</t>
+  </si>
+  <si>
+    <t>perfect</t>
+  </si>
+  <si>
+    <t>loved</t>
+  </si>
+  <si>
+    <t>salad</t>
+  </si>
+  <si>
     <t>amazing</t>
   </si>
   <si>
-    <t>best</t>
-  </si>
-  <si>
-    <t>perfect</t>
-  </si>
-  <si>
-    <t>pleased</t>
+    <t>thank</t>
+  </si>
+  <si>
+    <t>daughter</t>
+  </si>
+  <si>
+    <t>cakes</t>
+  </si>
+  <si>
+    <t>happy</t>
+  </si>
+  <si>
+    <t>great</t>
+  </si>
+  <si>
+    <t>christmas</t>
+  </si>
+  <si>
+    <t>wife</t>
   </si>
   <si>
     <t>beautiful</t>
   </si>
   <si>
-    <t>christmas</t>
-  </si>
-  <si>
-    <t>salad</t>
-  </si>
-  <si>
-    <t>cakes</t>
-  </si>
-  <si>
-    <t>great</t>
-  </si>
-  <si>
-    <t>happy</t>
-  </si>
-  <si>
-    <t>thank</t>
-  </si>
-  <si>
-    <t>loved</t>
+    <t>husband</t>
+  </si>
+  <si>
+    <t>cooke</t>
+  </si>
+  <si>
+    <t>ever</t>
   </si>
   <si>
     <t>glad</t>
   </si>
   <si>
-    <t>cooke</t>
-  </si>
-  <si>
-    <t>daughter</t>
-  </si>
-  <si>
-    <t>husband</t>
-  </si>
-  <si>
-    <t>enjoy</t>
+    <t>rice</t>
+  </si>
+  <si>
+    <t>sturdy</t>
+  </si>
+  <si>
+    <t>cake</t>
   </si>
   <si>
     <t>family</t>
   </si>
   <si>
-    <t>sturdy</t>
-  </si>
-  <si>
-    <t>wife</t>
-  </si>
-  <si>
-    <t>cake</t>
-  </si>
-  <si>
-    <t>ever</t>
+    <t>cheese</t>
+  </si>
+  <si>
+    <t>bread</t>
+  </si>
+  <si>
+    <t>gift</t>
+  </si>
+  <si>
+    <t>potatoes</t>
+  </si>
+  <si>
+    <t>tea</t>
+  </si>
+  <si>
+    <t>pie</t>
+  </si>
+  <si>
+    <t>perfectly</t>
+  </si>
+  <si>
+    <t>nice</t>
+  </si>
+  <si>
+    <t>years</t>
+  </si>
+  <si>
+    <t>day</t>
+  </si>
+  <si>
+    <t>easy</t>
+  </si>
+  <si>
+    <t>old</t>
   </si>
   <si>
     <t>comfortable</t>
   </si>
   <si>
-    <t>perfectly</t>
-  </si>
-  <si>
-    <t>cheese</t>
-  </si>
-  <si>
-    <t>son</t>
+    <t>kitchen</t>
   </si>
   <si>
     <t>ze</t>
   </si>
   <si>
-    <t>bread</t>
-  </si>
-  <si>
-    <t>kids</t>
-  </si>
-  <si>
-    <t>potatoes</t>
-  </si>
-  <si>
-    <t>gift</t>
-  </si>
-  <si>
-    <t>cooks</t>
-  </si>
-  <si>
-    <t>pie</t>
-  </si>
-  <si>
-    <t>rice</t>
-  </si>
-  <si>
     <t>cream</t>
   </si>
   <si>
-    <t>nice</t>
-  </si>
-  <si>
-    <t>easy</t>
+    <t>cook</t>
   </si>
   <si>
     <t>popcorn</t>
   </si>
   <si>
-    <t>years</t>
-  </si>
-  <si>
-    <t>tea</t>
+    <t>cooking</t>
+  </si>
+  <si>
+    <t>good</t>
   </si>
   <si>
     <t>always</t>
   </si>
   <si>
-    <t>old</t>
-  </si>
-  <si>
-    <t>cooking</t>
-  </si>
-  <si>
-    <t>kitchen</t>
-  </si>
-  <si>
-    <t>good</t>
-  </si>
-  <si>
-    <t>day</t>
-  </si>
-  <si>
-    <t>cook</t>
-  </si>
-  <si>
     <t>pan</t>
   </si>
   <si>
+    <t>keeps</t>
+  </si>
+  <si>
+    <t>works</t>
+  </si>
+  <si>
+    <t>ice</t>
+  </si>
+  <si>
+    <t>well</t>
+  </si>
+  <si>
+    <t>gr</t>
+  </si>
+  <si>
+    <t>far</t>
+  </si>
+  <si>
+    <t>w</t>
+  </si>
+  <si>
+    <t>recommend</t>
+  </si>
+  <si>
     <t>highly</t>
   </si>
   <si>
-    <t>well</t>
-  </si>
-  <si>
-    <t>works</t>
-  </si>
-  <si>
-    <t>keeps</t>
-  </si>
-  <si>
-    <t>many</t>
-  </si>
-  <si>
     <t>exactly</t>
   </si>
   <si>
-    <t>ice</t>
-  </si>
-  <si>
-    <t>far</t>
-  </si>
-  <si>
-    <t>dish</t>
-  </si>
-  <si>
-    <t>recommend</t>
+    <t>new</t>
   </si>
   <si>
     <t>bought</t>
   </si>
   <si>
-    <t>new</t>
-  </si>
-  <si>
     <t>every</t>
   </si>
   <si>
     <t>little</t>
   </si>
   <si>
+    <t>coffee</t>
+  </si>
+  <si>
+    <t>wish</t>
+  </si>
+  <si>
+    <t>last</t>
+  </si>
+  <si>
+    <t>make</t>
+  </si>
+  <si>
+    <t>makes</t>
+  </si>
+  <si>
+    <t>big</t>
+  </si>
+  <si>
+    <t>worth</t>
+  </si>
+  <si>
+    <t>also</t>
+  </si>
+  <si>
     <t>clean</t>
   </si>
   <si>
-    <t>also</t>
-  </si>
-  <si>
     <t>hot</t>
   </si>
   <si>
-    <t>makes</t>
-  </si>
-  <si>
-    <t>coffee</t>
-  </si>
-  <si>
-    <t>worth</t>
-  </si>
-  <si>
-    <t>purchased</t>
-  </si>
-  <si>
-    <t>big</t>
-  </si>
-  <si>
     <t>cup</t>
   </si>
   <si>
-    <t>make</t>
-  </si>
-  <si>
-    <t>last</t>
+    <t>like</t>
+  </si>
+  <si>
+    <t>long</t>
+  </si>
+  <si>
+    <t>job</t>
   </si>
   <si>
     <t>quality</t>
   </si>
   <si>
-    <t>job</t>
-  </si>
-  <si>
-    <t>like</t>
-  </si>
-  <si>
     <t>one</t>
   </si>
   <si>
     <t>really</t>
   </si>
   <si>
+    <t>much</t>
+  </si>
+  <si>
+    <t>used</t>
+  </si>
+  <si>
+    <t>time</t>
+  </si>
+  <si>
     <t>buy</t>
   </si>
   <si>
-    <t>much</t>
-  </si>
-  <si>
-    <t>time</t>
-  </si>
-  <si>
-    <t>made</t>
-  </si>
-  <si>
-    <t>used</t>
-  </si>
-  <si>
     <t>use</t>
-  </si>
-  <si>
-    <t>product</t>
   </si>
   <si>
     <t>positive</t>
@@ -695,7 +680,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q92"/>
+  <dimension ref="A1:Q87"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -706,7 +691,7 @@
         <v>16</v>
       </c>
       <c r="J1" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -788,13 +773,13 @@
         <v>17</v>
       </c>
       <c r="K3">
-        <v>0.9354838709677419</v>
+        <v>0.946236559139785</v>
       </c>
       <c r="L3">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="M3">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -806,7 +791,7 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -814,13 +799,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.5925925925925926</v>
+        <v>0.6296296296296297</v>
       </c>
       <c r="C4">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D4">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -832,19 +817,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J4" s="1" t="s">
         <v>18</v>
       </c>
       <c r="K4">
-        <v>0.90625</v>
+        <v>0.8985507246376812</v>
       </c>
       <c r="L4">
-        <v>116</v>
+        <v>62</v>
       </c>
       <c r="M4">
-        <v>116</v>
+        <v>62</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -856,7 +841,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>12</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -864,13 +849,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.5</v>
+        <v>0.425</v>
       </c>
       <c r="C5">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D5">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -882,19 +867,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="J5" s="1" t="s">
         <v>19</v>
       </c>
       <c r="K5">
-        <v>0.8405797101449275</v>
+        <v>0.8515625</v>
       </c>
       <c r="L5">
-        <v>58</v>
+        <v>109</v>
       </c>
       <c r="M5">
-        <v>58</v>
+        <v>109</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -906,7 +891,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>11</v>
+        <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -938,13 +923,13 @@
         <v>20</v>
       </c>
       <c r="K6">
-        <v>0.8390092879256966</v>
+        <v>0.8498452012383901</v>
       </c>
       <c r="L6">
-        <v>542</v>
+        <v>549</v>
       </c>
       <c r="M6">
-        <v>542</v>
+        <v>549</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -956,7 +941,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>104</v>
+        <v>97</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -964,13 +949,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.2790697674418605</v>
+        <v>0.2727272727272727</v>
       </c>
       <c r="C7">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="D7">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -982,19 +967,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>93</v>
+        <v>72</v>
       </c>
       <c r="J7" s="1" t="s">
         <v>21</v>
       </c>
       <c r="K7">
-        <v>0.8043478260869565</v>
+        <v>0.7391304347826086</v>
       </c>
       <c r="L7">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="M7">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -1006,7 +991,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -1014,13 +999,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.2307692307692308</v>
+        <v>0.2558139534883721</v>
       </c>
       <c r="C8">
-        <v>18</v>
+        <v>33</v>
       </c>
       <c r="D8">
-        <v>18</v>
+        <v>33</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -1032,19 +1017,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>60</v>
+        <v>96</v>
       </c>
       <c r="J8" s="1" t="s">
         <v>22</v>
       </c>
       <c r="K8">
-        <v>0.7241379310344828</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="L8">
-        <v>21</v>
+        <v>55</v>
       </c>
       <c r="M8">
-        <v>21</v>
+        <v>55</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -1056,7 +1041,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>8</v>
+        <v>22</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -1064,13 +1049,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.1919191919191919</v>
+        <v>0.217948717948718</v>
       </c>
       <c r="C9">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D9">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -1082,19 +1067,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>80</v>
+        <v>61</v>
       </c>
       <c r="J9" s="1" t="s">
         <v>23</v>
       </c>
       <c r="K9">
-        <v>0.7229437229437229</v>
+        <v>0.7056277056277056</v>
       </c>
       <c r="L9">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="M9">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -1106,7 +1091,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>64</v>
+        <v>68</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1138,13 +1123,13 @@
         <v>24</v>
       </c>
       <c r="K10">
-        <v>0.7050847457627119</v>
+        <v>0.6915254237288135</v>
       </c>
       <c r="L10">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="M10">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1156,7 +1141,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>87</v>
+        <v>91</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1164,13 +1149,13 @@
         <v>25</v>
       </c>
       <c r="K11">
-        <v>0.7012987012987013</v>
+        <v>0.6619718309859155</v>
       </c>
       <c r="L11">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="M11">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1182,7 +1167,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1190,13 +1175,13 @@
         <v>26</v>
       </c>
       <c r="K12">
-        <v>0.6818181818181818</v>
+        <v>0.6575342465753424</v>
       </c>
       <c r="L12">
-        <v>30</v>
+        <v>48</v>
       </c>
       <c r="M12">
-        <v>30</v>
+        <v>48</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1208,7 +1193,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>14</v>
+        <v>25</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1216,13 +1201,13 @@
         <v>27</v>
       </c>
       <c r="K13">
-        <v>0.6764705882352942</v>
+        <v>0.6551724137931034</v>
       </c>
       <c r="L13">
-        <v>46</v>
+        <v>19</v>
       </c>
       <c r="M13">
-        <v>46</v>
+        <v>19</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1234,7 +1219,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>22</v>
+        <v>10</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1242,13 +1227,13 @@
         <v>28</v>
       </c>
       <c r="K14">
-        <v>0.6712328767123288</v>
+        <v>0.6444444444444445</v>
       </c>
       <c r="L14">
-        <v>49</v>
+        <v>29</v>
       </c>
       <c r="M14">
-        <v>49</v>
+        <v>29</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1260,7 +1245,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>24</v>
+        <v>16</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1268,13 +1253,13 @@
         <v>29</v>
       </c>
       <c r="K15">
-        <v>0.640625</v>
+        <v>0.6428571428571429</v>
       </c>
       <c r="L15">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="M15">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1286,7 +1271,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1294,13 +1279,13 @@
         <v>30</v>
       </c>
       <c r="K16">
-        <v>0.6396468699839486</v>
+        <v>0.640625</v>
       </c>
       <c r="L16">
-        <v>797</v>
+        <v>41</v>
       </c>
       <c r="M16">
-        <v>797</v>
+        <v>41</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1312,7 +1297,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>449</v>
+        <v>23</v>
       </c>
     </row>
     <row r="17" spans="10:17">
@@ -1320,13 +1305,13 @@
         <v>31</v>
       </c>
       <c r="K17">
-        <v>0.6228571428571429</v>
+        <v>0.6342857142857142</v>
       </c>
       <c r="L17">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="M17">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1338,7 +1323,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="18" spans="10:17">
@@ -1346,13 +1331,13 @@
         <v>32</v>
       </c>
       <c r="K18">
-        <v>0.6222222222222222</v>
+        <v>0.6324237560192616</v>
       </c>
       <c r="L18">
-        <v>28</v>
+        <v>788</v>
       </c>
       <c r="M18">
-        <v>28</v>
+        <v>788</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1364,7 +1349,7 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>17</v>
+        <v>458</v>
       </c>
     </row>
     <row r="19" spans="10:17">
@@ -1372,13 +1357,13 @@
         <v>33</v>
       </c>
       <c r="K19">
-        <v>0.6197183098591549</v>
+        <v>0.6176470588235294</v>
       </c>
       <c r="L19">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="M19">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1390,7 +1375,7 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="20" spans="10:17">
@@ -1398,25 +1383,25 @@
         <v>34</v>
       </c>
       <c r="K20">
-        <v>0.6041666666666666</v>
+        <v>0.5972222222222222</v>
       </c>
       <c r="L20">
+        <v>43</v>
+      </c>
+      <c r="M20">
+        <v>43</v>
+      </c>
+      <c r="N20">
+        <v>1</v>
+      </c>
+      <c r="O20">
+        <v>0</v>
+      </c>
+      <c r="P20" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q20">
         <v>29</v>
-      </c>
-      <c r="M20">
-        <v>29</v>
-      </c>
-      <c r="N20">
-        <v>1</v>
-      </c>
-      <c r="O20">
-        <v>0</v>
-      </c>
-      <c r="P20" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q20">
-        <v>19</v>
       </c>
     </row>
     <row r="21" spans="10:17">
@@ -1424,13 +1409,13 @@
         <v>35</v>
       </c>
       <c r="K21">
-        <v>0.5982905982905983</v>
+        <v>0.5909090909090909</v>
       </c>
       <c r="L21">
-        <v>70</v>
+        <v>26</v>
       </c>
       <c r="M21">
-        <v>70</v>
+        <v>26</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1442,7 +1427,7 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>47</v>
+        <v>18</v>
       </c>
     </row>
     <row r="22" spans="10:17">
@@ -1450,13 +1435,13 @@
         <v>36</v>
       </c>
       <c r="K22">
-        <v>0.5857142857142857</v>
+        <v>0.543859649122807</v>
       </c>
       <c r="L22">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="M22">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1468,7 +1453,7 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="23" spans="10:17">
@@ -1476,13 +1461,13 @@
         <v>37</v>
       </c>
       <c r="K23">
-        <v>0.5789473684210527</v>
+        <v>0.5384615384615384</v>
       </c>
       <c r="L23">
-        <v>33</v>
+        <v>63</v>
       </c>
       <c r="M23">
-        <v>33</v>
+        <v>63</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1494,7 +1479,7 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>24</v>
+        <v>54</v>
       </c>
     </row>
     <row r="24" spans="10:17">
@@ -1502,13 +1487,13 @@
         <v>38</v>
       </c>
       <c r="K24">
-        <v>0.5428571428571428</v>
+        <v>0.5263157894736842</v>
       </c>
       <c r="L24">
-        <v>19</v>
+        <v>70</v>
       </c>
       <c r="M24">
-        <v>19</v>
+        <v>70</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1520,7 +1505,7 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>16</v>
+        <v>63</v>
       </c>
     </row>
     <row r="25" spans="10:17">
@@ -1528,13 +1513,13 @@
         <v>39</v>
       </c>
       <c r="K25">
-        <v>0.5384615384615384</v>
+        <v>0.5208333333333334</v>
       </c>
       <c r="L25">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="M25">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1546,7 +1531,7 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>30</v>
+        <v>23</v>
       </c>
     </row>
     <row r="26" spans="10:17">
@@ -1554,13 +1539,13 @@
         <v>40</v>
       </c>
       <c r="K26">
-        <v>0.5269461077844312</v>
+        <v>0.5098039215686274</v>
       </c>
       <c r="L26">
-        <v>88</v>
+        <v>26</v>
       </c>
       <c r="M26">
-        <v>88</v>
+        <v>26</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -1572,7 +1557,7 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>79</v>
+        <v>25</v>
       </c>
     </row>
     <row r="27" spans="10:17">
@@ -1580,13 +1565,13 @@
         <v>41</v>
       </c>
       <c r="K27">
-        <v>0.5138888888888888</v>
+        <v>0.4970059880239521</v>
       </c>
       <c r="L27">
-        <v>37</v>
+        <v>83</v>
       </c>
       <c r="M27">
-        <v>37</v>
+        <v>83</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -1598,7 +1583,7 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>35</v>
+        <v>84</v>
       </c>
     </row>
     <row r="28" spans="10:17">
@@ -1606,13 +1591,13 @@
         <v>42</v>
       </c>
       <c r="K28">
-        <v>0.5096153846153846</v>
+        <v>0.4807692307692308</v>
       </c>
       <c r="L28">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="M28">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -1624,7 +1609,7 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>51</v>
+        <v>54</v>
       </c>
     </row>
     <row r="29" spans="10:17">
@@ -1632,13 +1617,13 @@
         <v>43</v>
       </c>
       <c r="K29">
-        <v>0.5037593984962406</v>
+        <v>0.4615384615384616</v>
       </c>
       <c r="L29">
-        <v>67</v>
+        <v>30</v>
       </c>
       <c r="M29">
-        <v>67</v>
+        <v>30</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -1650,7 +1635,7 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>66</v>
+        <v>35</v>
       </c>
     </row>
     <row r="30" spans="10:17">
@@ -1658,13 +1643,13 @@
         <v>44</v>
       </c>
       <c r="K30">
-        <v>0.4918032786885246</v>
+        <v>0.4578313253012048</v>
       </c>
       <c r="L30">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="M30">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="N30">
         <v>1</v>
@@ -1676,7 +1661,7 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>31</v>
+        <v>45</v>
       </c>
     </row>
     <row r="31" spans="10:17">
@@ -1684,13 +1669,13 @@
         <v>45</v>
       </c>
       <c r="K31">
-        <v>0.4868421052631579</v>
+        <v>0.43</v>
       </c>
       <c r="L31">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="M31">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="N31">
         <v>1</v>
@@ -1702,7 +1687,7 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>39</v>
+        <v>57</v>
       </c>
     </row>
     <row r="32" spans="10:17">
@@ -1710,13 +1695,13 @@
         <v>46</v>
       </c>
       <c r="K32">
-        <v>0.4698795180722892</v>
+        <v>0.427710843373494</v>
       </c>
       <c r="L32">
-        <v>39</v>
+        <v>71</v>
       </c>
       <c r="M32">
-        <v>39</v>
+        <v>71</v>
       </c>
       <c r="N32">
         <v>1</v>
@@ -1728,7 +1713,7 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>44</v>
+        <v>95</v>
       </c>
     </row>
     <row r="33" spans="10:17">
@@ -1736,13 +1721,13 @@
         <v>47</v>
       </c>
       <c r="K33">
-        <v>0.4615384615384616</v>
+        <v>0.4126984126984127</v>
       </c>
       <c r="L33">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="M33">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="N33">
         <v>1</v>
@@ -1754,7 +1739,7 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>21</v>
+        <v>37</v>
       </c>
     </row>
     <row r="34" spans="10:17">
@@ -1762,13 +1747,13 @@
         <v>48</v>
       </c>
       <c r="K34">
-        <v>0.4567901234567901</v>
+        <v>0.4100719424460432</v>
       </c>
       <c r="L34">
-        <v>37</v>
+        <v>57</v>
       </c>
       <c r="M34">
-        <v>37</v>
+        <v>57</v>
       </c>
       <c r="N34">
         <v>1</v>
@@ -1780,7 +1765,7 @@
         <v>0</v>
       </c>
       <c r="Q34">
-        <v>44</v>
+        <v>82</v>
       </c>
     </row>
     <row r="35" spans="10:17">
@@ -1788,13 +1773,13 @@
         <v>49</v>
       </c>
       <c r="K35">
-        <v>0.42</v>
+        <v>0.3846153846153846</v>
       </c>
       <c r="L35">
-        <v>42</v>
+        <v>25</v>
       </c>
       <c r="M35">
-        <v>42</v>
+        <v>25</v>
       </c>
       <c r="N35">
         <v>1</v>
@@ -1806,7 +1791,7 @@
         <v>0</v>
       </c>
       <c r="Q35">
-        <v>58</v>
+        <v>40</v>
       </c>
     </row>
     <row r="36" spans="10:17">
@@ -1814,13 +1799,13 @@
         <v>50</v>
       </c>
       <c r="K36">
-        <v>0.4081632653061225</v>
+        <v>0.3815789473684211</v>
       </c>
       <c r="L36">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="M36">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="N36">
         <v>1</v>
@@ -1832,7 +1817,7 @@
         <v>0</v>
       </c>
       <c r="Q36">
-        <v>29</v>
+        <v>47</v>
       </c>
     </row>
     <row r="37" spans="10:17">
@@ -1840,13 +1825,13 @@
         <v>51</v>
       </c>
       <c r="K37">
-        <v>0.3968253968253968</v>
+        <v>0.3504901960784313</v>
       </c>
       <c r="L37">
-        <v>25</v>
+        <v>143</v>
       </c>
       <c r="M37">
-        <v>25</v>
+        <v>143</v>
       </c>
       <c r="N37">
         <v>1</v>
@@ -1858,7 +1843,7 @@
         <v>0</v>
       </c>
       <c r="Q37">
-        <v>38</v>
+        <v>265</v>
       </c>
     </row>
     <row r="38" spans="10:17">
@@ -1866,13 +1851,13 @@
         <v>52</v>
       </c>
       <c r="K38">
-        <v>0.3855421686746988</v>
+        <v>0.3424124513618677</v>
       </c>
       <c r="L38">
-        <v>64</v>
+        <v>88</v>
       </c>
       <c r="M38">
-        <v>64</v>
+        <v>88</v>
       </c>
       <c r="N38">
         <v>1</v>
@@ -1884,7 +1869,7 @@
         <v>0</v>
       </c>
       <c r="Q38">
-        <v>102</v>
+        <v>169</v>
       </c>
     </row>
     <row r="39" spans="10:17">
@@ -1892,13 +1877,13 @@
         <v>53</v>
       </c>
       <c r="K39">
-        <v>0.3673469387755102</v>
+        <v>0.3267326732673267</v>
       </c>
       <c r="L39">
-        <v>18</v>
+        <v>33</v>
       </c>
       <c r="M39">
-        <v>18</v>
+        <v>33</v>
       </c>
       <c r="N39">
         <v>1</v>
@@ -1910,7 +1895,7 @@
         <v>0</v>
       </c>
       <c r="Q39">
-        <v>31</v>
+        <v>68</v>
       </c>
     </row>
     <row r="40" spans="10:17">
@@ -1918,13 +1903,13 @@
         <v>54</v>
       </c>
       <c r="K40">
-        <v>0.3538461538461539</v>
+        <v>0.326027397260274</v>
       </c>
       <c r="L40">
-        <v>23</v>
+        <v>238</v>
       </c>
       <c r="M40">
-        <v>23</v>
+        <v>238</v>
       </c>
       <c r="N40">
         <v>1</v>
@@ -1936,7 +1921,7 @@
         <v>0</v>
       </c>
       <c r="Q40">
-        <v>42</v>
+        <v>492</v>
       </c>
     </row>
     <row r="41" spans="10:17">
@@ -1944,13 +1929,13 @@
         <v>55</v>
       </c>
       <c r="K41">
-        <v>0.3529411764705883</v>
+        <v>0.3157894736842105</v>
       </c>
       <c r="L41">
-        <v>18</v>
+        <v>42</v>
       </c>
       <c r="M41">
-        <v>18</v>
+        <v>42</v>
       </c>
       <c r="N41">
         <v>1</v>
@@ -1962,7 +1947,7 @@
         <v>0</v>
       </c>
       <c r="Q41">
-        <v>33</v>
+        <v>91</v>
       </c>
     </row>
     <row r="42" spans="10:17">
@@ -1970,13 +1955,13 @@
         <v>56</v>
       </c>
       <c r="K42">
-        <v>0.3529411764705883</v>
+        <v>0.3114754098360656</v>
       </c>
       <c r="L42">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="M42">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="N42">
         <v>1</v>
@@ -1988,7 +1973,7 @@
         <v>0</v>
       </c>
       <c r="Q42">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="43" spans="10:17">
@@ -1996,13 +1981,13 @@
         <v>57</v>
       </c>
       <c r="K43">
-        <v>0.3480392156862745</v>
+        <v>0.2870813397129187</v>
       </c>
       <c r="L43">
-        <v>142</v>
+        <v>60</v>
       </c>
       <c r="M43">
-        <v>142</v>
+        <v>60</v>
       </c>
       <c r="N43">
         <v>1</v>
@@ -2014,7 +1999,7 @@
         <v>0</v>
       </c>
       <c r="Q43">
-        <v>266</v>
+        <v>149</v>
       </c>
     </row>
     <row r="44" spans="10:17">
@@ -2022,13 +2007,13 @@
         <v>58</v>
       </c>
       <c r="K44">
-        <v>0.3479452054794521</v>
+        <v>0.2839506172839506</v>
       </c>
       <c r="L44">
-        <v>254</v>
+        <v>23</v>
       </c>
       <c r="M44">
-        <v>254</v>
+        <v>23</v>
       </c>
       <c r="N44">
         <v>1</v>
@@ -2040,7 +2025,7 @@
         <v>0</v>
       </c>
       <c r="Q44">
-        <v>476</v>
+        <v>58</v>
       </c>
     </row>
     <row r="45" spans="10:17">
@@ -2048,13 +2033,13 @@
         <v>59</v>
       </c>
       <c r="K45">
-        <v>0.3421052631578947</v>
+        <v>0.2794117647058824</v>
       </c>
       <c r="L45">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="M45">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="N45">
         <v>1</v>
@@ -2066,7 +2051,7 @@
         <v>0</v>
       </c>
       <c r="Q45">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="46" spans="10:17">
@@ -2074,13 +2059,13 @@
         <v>60</v>
       </c>
       <c r="K46">
-        <v>0.3346303501945525</v>
+        <v>0.2777777777777778</v>
       </c>
       <c r="L46">
-        <v>86</v>
+        <v>30</v>
       </c>
       <c r="M46">
-        <v>86</v>
+        <v>30</v>
       </c>
       <c r="N46">
         <v>1</v>
@@ -2092,7 +2077,7 @@
         <v>0</v>
       </c>
       <c r="Q46">
-        <v>171</v>
+        <v>78</v>
       </c>
     </row>
     <row r="47" spans="10:17">
@@ -2100,13 +2085,13 @@
         <v>61</v>
       </c>
       <c r="K47">
-        <v>0.316546762589928</v>
+        <v>0.2763157894736842</v>
       </c>
       <c r="L47">
-        <v>44</v>
+        <v>21</v>
       </c>
       <c r="M47">
-        <v>44</v>
+        <v>21</v>
       </c>
       <c r="N47">
         <v>1</v>
@@ -2118,7 +2103,7 @@
         <v>0</v>
       </c>
       <c r="Q47">
-        <v>95</v>
+        <v>55</v>
       </c>
     </row>
     <row r="48" spans="10:17">
@@ -2126,13 +2111,13 @@
         <v>62</v>
       </c>
       <c r="K48">
-        <v>0.2976190476190476</v>
+        <v>0.2522522522522522</v>
       </c>
       <c r="L48">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="M48">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="N48">
         <v>1</v>
@@ -2144,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="Q48">
-        <v>59</v>
+        <v>83</v>
       </c>
     </row>
     <row r="49" spans="10:17">
@@ -2152,13 +2137,13 @@
         <v>63</v>
       </c>
       <c r="K49">
-        <v>0.2932330827067669</v>
+        <v>0.2508073196986007</v>
       </c>
       <c r="L49">
-        <v>39</v>
+        <v>233</v>
       </c>
       <c r="M49">
-        <v>39</v>
+        <v>233</v>
       </c>
       <c r="N49">
         <v>1</v>
@@ -2170,7 +2155,7 @@
         <v>0</v>
       </c>
       <c r="Q49">
-        <v>94</v>
+        <v>696</v>
       </c>
     </row>
     <row r="50" spans="10:17">
@@ -2178,13 +2163,13 @@
         <v>64</v>
       </c>
       <c r="K50">
-        <v>0.2882882882882883</v>
+        <v>0.2380952380952381</v>
       </c>
       <c r="L50">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="M50">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="N50">
         <v>1</v>
@@ -2196,7 +2181,7 @@
         <v>0</v>
       </c>
       <c r="Q50">
-        <v>79</v>
+        <v>64</v>
       </c>
     </row>
     <row r="51" spans="10:17">
@@ -2204,13 +2189,13 @@
         <v>65</v>
       </c>
       <c r="K51">
-        <v>0.2727272727272727</v>
+        <v>0.219435736677116</v>
       </c>
       <c r="L51">
-        <v>57</v>
+        <v>70</v>
       </c>
       <c r="M51">
-        <v>57</v>
+        <v>70</v>
       </c>
       <c r="N51">
         <v>1</v>
@@ -2222,7 +2207,7 @@
         <v>0</v>
       </c>
       <c r="Q51">
-        <v>152</v>
+        <v>249</v>
       </c>
     </row>
     <row r="52" spans="10:17">
@@ -2230,13 +2215,13 @@
         <v>66</v>
       </c>
       <c r="K52">
-        <v>0.2572658772874058</v>
+        <v>0.1986754966887417</v>
       </c>
       <c r="L52">
-        <v>239</v>
+        <v>30</v>
       </c>
       <c r="M52">
-        <v>239</v>
+        <v>30</v>
       </c>
       <c r="N52">
         <v>1</v>
@@ -2248,7 +2233,7 @@
         <v>0</v>
       </c>
       <c r="Q52">
-        <v>690</v>
+        <v>121</v>
       </c>
     </row>
     <row r="53" spans="10:17">
@@ -2256,13 +2241,13 @@
         <v>67</v>
       </c>
       <c r="K53">
-        <v>0.2475247524752475</v>
+        <v>0.1973509933774834</v>
       </c>
       <c r="L53">
-        <v>25</v>
+        <v>149</v>
       </c>
       <c r="M53">
-        <v>25</v>
+        <v>149</v>
       </c>
       <c r="N53">
         <v>1</v>
@@ -2274,7 +2259,7 @@
         <v>0</v>
       </c>
       <c r="Q53">
-        <v>76</v>
+        <v>606</v>
       </c>
     </row>
     <row r="54" spans="10:17">
@@ -2282,13 +2267,13 @@
         <v>68</v>
       </c>
       <c r="K54">
-        <v>0.2407407407407407</v>
+        <v>0.1847826086956522</v>
       </c>
       <c r="L54">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="M54">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="N54">
         <v>1</v>
@@ -2300,7 +2285,7 @@
         <v>0</v>
       </c>
       <c r="Q54">
-        <v>82</v>
+        <v>75</v>
       </c>
     </row>
     <row r="55" spans="10:17">
@@ -2308,13 +2293,13 @@
         <v>69</v>
       </c>
       <c r="K55">
-        <v>0.2351097178683386</v>
+        <v>0.1828644501278772</v>
       </c>
       <c r="L55">
-        <v>75</v>
+        <v>143</v>
       </c>
       <c r="M55">
-        <v>75</v>
+        <v>143</v>
       </c>
       <c r="N55">
         <v>1</v>
@@ -2326,7 +2311,7 @@
         <v>0</v>
       </c>
       <c r="Q55">
-        <v>244</v>
+        <v>639</v>
       </c>
     </row>
     <row r="56" spans="10:17">
@@ -2334,13 +2319,13 @@
         <v>70</v>
       </c>
       <c r="K56">
-        <v>0.2072072072072072</v>
+        <v>0.1809523809523809</v>
       </c>
       <c r="L56">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="M56">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="N56">
         <v>1</v>
@@ -2352,7 +2337,7 @@
         <v>0</v>
       </c>
       <c r="Q56">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="57" spans="10:17">
@@ -2360,25 +2345,25 @@
         <v>71</v>
       </c>
       <c r="K57">
-        <v>0.2010243277848912</v>
+        <v>0.180327868852459</v>
       </c>
       <c r="L57">
-        <v>157</v>
+        <v>22</v>
       </c>
       <c r="M57">
-        <v>158</v>
+        <v>22</v>
       </c>
       <c r="N57">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="O57">
-        <v>0.01000000000000001</v>
+        <v>0</v>
       </c>
       <c r="P57" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q57">
-        <v>624</v>
+        <v>100</v>
       </c>
     </row>
     <row r="58" spans="10:17">
@@ -2386,13 +2371,13 @@
         <v>72</v>
       </c>
       <c r="K58">
-        <v>0.1947019867549669</v>
+        <v>0.1764705882352941</v>
       </c>
       <c r="L58">
-        <v>147</v>
+        <v>15</v>
       </c>
       <c r="M58">
-        <v>147</v>
+        <v>15</v>
       </c>
       <c r="N58">
         <v>1</v>
@@ -2404,7 +2389,7 @@
         <v>0</v>
       </c>
       <c r="Q58">
-        <v>608</v>
+        <v>70</v>
       </c>
     </row>
     <row r="59" spans="10:17">
@@ -2412,13 +2397,13 @@
         <v>73</v>
       </c>
       <c r="K59">
-        <v>0.1920529801324503</v>
+        <v>0.1725067385444744</v>
       </c>
       <c r="L59">
-        <v>29</v>
+        <v>64</v>
       </c>
       <c r="M59">
-        <v>29</v>
+        <v>64</v>
       </c>
       <c r="N59">
         <v>1</v>
@@ -2430,7 +2415,7 @@
         <v>0</v>
       </c>
       <c r="Q59">
-        <v>122</v>
+        <v>307</v>
       </c>
     </row>
     <row r="60" spans="10:17">
@@ -2438,13 +2423,13 @@
         <v>74</v>
       </c>
       <c r="K60">
-        <v>0.1794871794871795</v>
+        <v>0.1711711711711712</v>
       </c>
       <c r="L60">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="M60">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="N60">
         <v>1</v>
@@ -2456,7 +2441,7 @@
         <v>0</v>
       </c>
       <c r="Q60">
-        <v>96</v>
+        <v>92</v>
       </c>
     </row>
     <row r="61" spans="10:17">
@@ -2464,25 +2449,25 @@
         <v>75</v>
       </c>
       <c r="K61">
-        <v>0.1769911504424779</v>
+        <v>0.1607142857142857</v>
       </c>
       <c r="L61">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="M61">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="N61">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="O61">
-        <v>0</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="P61" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q61">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
     <row r="62" spans="10:17">
@@ -2490,13 +2475,13 @@
         <v>76</v>
       </c>
       <c r="K62">
-        <v>0.1739130434782609</v>
+        <v>0.1543624161073825</v>
       </c>
       <c r="L62">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="M62">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="N62">
         <v>1</v>
@@ -2508,7 +2493,7 @@
         <v>0</v>
       </c>
       <c r="Q62">
-        <v>76</v>
+        <v>126</v>
       </c>
     </row>
     <row r="63" spans="10:17">
@@ -2516,13 +2501,13 @@
         <v>77</v>
       </c>
       <c r="K63">
-        <v>0.1639344262295082</v>
+        <v>0.1508515815085158</v>
       </c>
       <c r="L63">
-        <v>20</v>
+        <v>62</v>
       </c>
       <c r="M63">
-        <v>20</v>
+        <v>62</v>
       </c>
       <c r="N63">
         <v>1</v>
@@ -2534,7 +2519,7 @@
         <v>0</v>
       </c>
       <c r="Q63">
-        <v>102</v>
+        <v>349</v>
       </c>
     </row>
     <row r="64" spans="10:17">
@@ -2542,25 +2527,25 @@
         <v>78</v>
       </c>
       <c r="K64">
-        <v>0.1559633027522936</v>
+        <v>0.147239263803681</v>
       </c>
       <c r="L64">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="M64">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="N64">
-        <v>1</v>
+        <v>0.96</v>
       </c>
       <c r="O64">
-        <v>0</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="P64" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q64">
-        <v>92</v>
+        <v>139</v>
       </c>
     </row>
     <row r="65" spans="10:17">
@@ -2568,25 +2553,25 @@
         <v>79</v>
       </c>
       <c r="K65">
-        <v>0.1544715447154472</v>
+        <v>0.140893470790378</v>
       </c>
       <c r="L65">
-        <v>57</v>
+        <v>41</v>
       </c>
       <c r="M65">
-        <v>59</v>
+        <v>41</v>
       </c>
       <c r="N65">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="O65">
-        <v>0.03000000000000003</v>
+        <v>0</v>
       </c>
       <c r="P65" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q65">
-        <v>312</v>
+        <v>250</v>
       </c>
     </row>
     <row r="66" spans="10:17">
@@ -2594,13 +2579,13 @@
         <v>80</v>
       </c>
       <c r="K66">
-        <v>0.1411192214111922</v>
+        <v>0.125</v>
       </c>
       <c r="L66">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="M66">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="N66">
         <v>1</v>
@@ -2612,7 +2597,7 @@
         <v>0</v>
       </c>
       <c r="Q66">
-        <v>353</v>
+        <v>385</v>
       </c>
     </row>
     <row r="67" spans="10:17">
@@ -2620,13 +2605,13 @@
         <v>81</v>
       </c>
       <c r="K67">
-        <v>0.1409395973154362</v>
+        <v>0.1230769230769231</v>
       </c>
       <c r="L67">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="M67">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="N67">
         <v>1</v>
@@ -2638,7 +2623,7 @@
         <v>0</v>
       </c>
       <c r="Q67">
-        <v>128</v>
+        <v>114</v>
       </c>
     </row>
     <row r="68" spans="10:17">
@@ -2646,13 +2631,13 @@
         <v>82</v>
       </c>
       <c r="K68">
-        <v>0.1280487804878049</v>
+        <v>0.1226993865030675</v>
       </c>
       <c r="L68">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="M68">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="N68">
         <v>1</v>
@@ -2672,13 +2657,13 @@
         <v>83</v>
       </c>
       <c r="K69">
-        <v>0.127147766323024</v>
+        <v>0.1222222222222222</v>
       </c>
       <c r="L69">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="M69">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="N69">
         <v>1</v>
@@ -2690,7 +2675,7 @@
         <v>0</v>
       </c>
       <c r="Q69">
-        <v>254</v>
+        <v>237</v>
       </c>
     </row>
     <row r="70" spans="10:17">
@@ -2698,13 +2683,13 @@
         <v>84</v>
       </c>
       <c r="K70">
-        <v>0.1228070175438596</v>
+        <v>0.1217712177121771</v>
       </c>
       <c r="L70">
-        <v>56</v>
+        <v>33</v>
       </c>
       <c r="M70">
-        <v>56</v>
+        <v>33</v>
       </c>
       <c r="N70">
         <v>1</v>
@@ -2716,7 +2701,7 @@
         <v>0</v>
       </c>
       <c r="Q70">
-        <v>400</v>
+        <v>238</v>
       </c>
     </row>
     <row r="71" spans="10:17">
@@ -2724,25 +2709,25 @@
         <v>85</v>
       </c>
       <c r="K71">
-        <v>0.1188118811881188</v>
+        <v>0.1212121212121212</v>
       </c>
       <c r="L71">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="M71">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="N71">
-        <v>0.96</v>
+        <v>1</v>
       </c>
       <c r="O71">
-        <v>0.04000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P71" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q71">
-        <v>178</v>
+        <v>145</v>
       </c>
     </row>
     <row r="72" spans="10:17">
@@ -2750,25 +2735,25 @@
         <v>86</v>
       </c>
       <c r="K72">
-        <v>0.1176470588235294</v>
+        <v>0.1136363636363636</v>
       </c>
       <c r="L72">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="M72">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="N72">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="O72">
-        <v>0</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="P72" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q72">
-        <v>210</v>
+        <v>156</v>
       </c>
     </row>
     <row r="73" spans="10:17">
@@ -2776,13 +2761,13 @@
         <v>87</v>
       </c>
       <c r="K73">
-        <v>0.1143911439114391</v>
+        <v>0.1133004926108374</v>
       </c>
       <c r="L73">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="M73">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="N73">
         <v>1</v>
@@ -2794,7 +2779,7 @@
         <v>0</v>
       </c>
       <c r="Q73">
-        <v>240</v>
+        <v>180</v>
       </c>
     </row>
     <row r="74" spans="10:17">
@@ -2802,25 +2787,25 @@
         <v>88</v>
       </c>
       <c r="K74">
-        <v>0.1090909090909091</v>
+        <v>0.1076923076923077</v>
       </c>
       <c r="L74">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="M74">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="N74">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="O74">
-        <v>0</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="P74" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q74">
-        <v>392</v>
+        <v>406</v>
       </c>
     </row>
     <row r="75" spans="10:17">
@@ -2828,13 +2813,13 @@
         <v>89</v>
       </c>
       <c r="K75">
-        <v>0.1073446327683616</v>
+        <v>0.1050420168067227</v>
       </c>
       <c r="L75">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="M75">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="N75">
         <v>1</v>
@@ -2846,7 +2831,7 @@
         <v>0</v>
       </c>
       <c r="Q75">
-        <v>158</v>
+        <v>213</v>
       </c>
     </row>
     <row r="76" spans="10:17">
@@ -2854,7 +2839,7 @@
         <v>90</v>
       </c>
       <c r="K76">
-        <v>0.1041666666666667</v>
+        <v>0.09615384615384616</v>
       </c>
       <c r="L76">
         <v>15</v>
@@ -2872,7 +2857,7 @@
         <v>0</v>
       </c>
       <c r="Q76">
-        <v>129</v>
+        <v>141</v>
       </c>
     </row>
     <row r="77" spans="10:17">
@@ -2880,25 +2865,25 @@
         <v>91</v>
       </c>
       <c r="K77">
-        <v>0.103030303030303</v>
+        <v>0.08321377331420372</v>
       </c>
       <c r="L77">
-        <v>17</v>
+        <v>58</v>
       </c>
       <c r="M77">
-        <v>17</v>
+        <v>59</v>
       </c>
       <c r="N77">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="O77">
-        <v>0</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="P77" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q77">
-        <v>148</v>
+        <v>639</v>
       </c>
     </row>
     <row r="78" spans="10:17">
@@ -2906,25 +2891,25 @@
         <v>92</v>
       </c>
       <c r="K78">
-        <v>0.1025641025641026</v>
+        <v>0.0821256038647343</v>
       </c>
       <c r="L78">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="M78">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="N78">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="O78">
-        <v>0</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="P78" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q78">
-        <v>140</v>
+        <v>190</v>
       </c>
     </row>
     <row r="79" spans="10:17">
@@ -2932,25 +2917,25 @@
         <v>93</v>
       </c>
       <c r="K79">
-        <v>0.1003717472118959</v>
+        <v>0.07661290322580645</v>
       </c>
       <c r="L79">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="M79">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="N79">
-        <v>0.96</v>
+        <v>1</v>
       </c>
       <c r="O79">
-        <v>0.04000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P79" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q79">
-        <v>242</v>
+        <v>229</v>
       </c>
     </row>
     <row r="80" spans="10:17">
@@ -2958,13 +2943,13 @@
         <v>94</v>
       </c>
       <c r="K80">
-        <v>0.09815950920245399</v>
+        <v>0.07637231503579953</v>
       </c>
       <c r="L80">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="M80">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="N80">
         <v>1</v>
@@ -2976,7 +2961,7 @@
         <v>0</v>
       </c>
       <c r="Q80">
-        <v>147</v>
+        <v>387</v>
       </c>
     </row>
     <row r="81" spans="10:17">
@@ -2984,25 +2969,25 @@
         <v>95</v>
       </c>
       <c r="K81">
-        <v>0.0954653937947494</v>
+        <v>0.06355140186915888</v>
       </c>
       <c r="L81">
-        <v>40</v>
+        <v>68</v>
       </c>
       <c r="M81">
-        <v>40</v>
+        <v>70</v>
       </c>
       <c r="N81">
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="O81">
-        <v>0</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="P81" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q81">
-        <v>379</v>
+        <v>1002</v>
       </c>
     </row>
     <row r="82" spans="10:17">
@@ -3010,7 +2995,7 @@
         <v>96</v>
       </c>
       <c r="K82">
-        <v>0.09274193548387097</v>
+        <v>0.06284153005464481</v>
       </c>
       <c r="L82">
         <v>23</v>
@@ -3028,7 +3013,7 @@
         <v>0</v>
       </c>
       <c r="Q82">
-        <v>225</v>
+        <v>343</v>
       </c>
     </row>
     <row r="83" spans="10:17">
@@ -3036,25 +3021,25 @@
         <v>97</v>
       </c>
       <c r="K83">
-        <v>0.08751793400286945</v>
+        <v>0.05524861878453038</v>
       </c>
       <c r="L83">
-        <v>61</v>
+        <v>20</v>
       </c>
       <c r="M83">
-        <v>62</v>
+        <v>23</v>
       </c>
       <c r="N83">
-        <v>0.98</v>
+        <v>0.87</v>
       </c>
       <c r="O83">
-        <v>0.02000000000000002</v>
+        <v>0.13</v>
       </c>
       <c r="P83" t="b">
         <v>1</v>
       </c>
       <c r="Q83">
-        <v>636</v>
+        <v>342</v>
       </c>
     </row>
     <row r="84" spans="10:17">
@@ -3062,13 +3047,13 @@
         <v>98</v>
       </c>
       <c r="K84">
-        <v>0.08022388059701492</v>
+        <v>0.04597701149425287</v>
       </c>
       <c r="L84">
-        <v>86</v>
+        <v>24</v>
       </c>
       <c r="M84">
-        <v>86</v>
+        <v>24</v>
       </c>
       <c r="N84">
         <v>1</v>
@@ -3080,7 +3065,7 @@
         <v>0</v>
       </c>
       <c r="Q84">
-        <v>986</v>
+        <v>498</v>
       </c>
     </row>
     <row r="85" spans="10:17">
@@ -3088,25 +3073,25 @@
         <v>99</v>
       </c>
       <c r="K85">
-        <v>0.07397260273972603</v>
+        <v>0.04428044280442804</v>
       </c>
       <c r="L85">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="M85">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="N85">
-        <v>0.96</v>
+        <v>1</v>
       </c>
       <c r="O85">
-        <v>0.04000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P85" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q85">
-        <v>338</v>
+        <v>518</v>
       </c>
     </row>
     <row r="86" spans="10:17">
@@ -3114,25 +3099,25 @@
         <v>100</v>
       </c>
       <c r="K86">
-        <v>0.05076142131979695</v>
+        <v>0.04325699745547074</v>
       </c>
       <c r="L86">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="M86">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="N86">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="O86">
-        <v>0</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="P86" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q86">
-        <v>374</v>
+        <v>376</v>
       </c>
     </row>
     <row r="87" spans="10:17">
@@ -3140,155 +3125,25 @@
         <v>101</v>
       </c>
       <c r="K87">
-        <v>0.04945054945054945</v>
+        <v>0.04163052905464007</v>
       </c>
       <c r="L87">
-        <v>18</v>
+        <v>48</v>
       </c>
       <c r="M87">
-        <v>19</v>
+        <v>52</v>
       </c>
       <c r="N87">
-        <v>0.95</v>
+        <v>0.92</v>
       </c>
       <c r="O87">
-        <v>0.05000000000000004</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="P87" t="b">
         <v>1</v>
       </c>
       <c r="Q87">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="88" spans="10:17">
-      <c r="J88" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="K88">
-        <v>0.04243542435424354</v>
-      </c>
-      <c r="L88">
-        <v>23</v>
-      </c>
-      <c r="M88">
-        <v>23</v>
-      </c>
-      <c r="N88">
-        <v>1</v>
-      </c>
-      <c r="O88">
-        <v>0</v>
-      </c>
-      <c r="P88" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q88">
-        <v>519</v>
-      </c>
-    </row>
-    <row r="89" spans="10:17">
-      <c r="J89" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="K89">
-        <v>0.0387409200968523</v>
-      </c>
-      <c r="L89">
-        <v>16</v>
-      </c>
-      <c r="M89">
-        <v>17</v>
-      </c>
-      <c r="N89">
-        <v>0.9399999999999999</v>
-      </c>
-      <c r="O89">
-        <v>0.06000000000000005</v>
-      </c>
-      <c r="P89" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q89">
-        <v>397</v>
-      </c>
-    </row>
-    <row r="90" spans="10:17">
-      <c r="J90" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="K90">
-        <v>0.03838771593090211</v>
-      </c>
-      <c r="L90">
-        <v>20</v>
-      </c>
-      <c r="M90">
-        <v>21</v>
-      </c>
-      <c r="N90">
-        <v>0.95</v>
-      </c>
-      <c r="O90">
-        <v>0.05000000000000004</v>
-      </c>
-      <c r="P90" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q90">
-        <v>501</v>
-      </c>
-    </row>
-    <row r="91" spans="10:17">
-      <c r="J91" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="K91">
-        <v>0.03546712802768166</v>
-      </c>
-      <c r="L91">
-        <v>41</v>
-      </c>
-      <c r="M91">
-        <v>42</v>
-      </c>
-      <c r="N91">
-        <v>0.98</v>
-      </c>
-      <c r="O91">
-        <v>0.02000000000000002</v>
-      </c>
-      <c r="P91" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q91">
-        <v>1115</v>
-      </c>
-    </row>
-    <row r="92" spans="10:17">
-      <c r="J92" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="K92">
-        <v>0.02091503267973856</v>
-      </c>
-      <c r="L92">
-        <v>16</v>
-      </c>
-      <c r="M92">
-        <v>18</v>
-      </c>
-      <c r="N92">
-        <v>0.89</v>
-      </c>
-      <c r="O92">
-        <v>0.11</v>
-      </c>
-      <c r="P92" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q92">
-        <v>749</v>
+        <v>1105</v>
       </c>
     </row>
   </sheetData>
